--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_11.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>411827.9565614138</v>
+        <v>438336.2585840487</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2589789.105914734</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19958284.28136534</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4838958.146213133</v>
+        <v>5667942.033436031</v>
       </c>
     </row>
     <row r="11">
@@ -668,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,31 +735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>38.87161743162455</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -856,16 +856,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7904504476822691</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.13217237922859</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F5" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>38.87161743162454</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -981,16 +981,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.13217237922859</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,16 +1145,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>26.92232807701203</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1218,16 +1218,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44.13217237922859</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J10" t="n">
-        <v>44.13217237922859</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1412,22 +1412,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1449,25 +1449,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>38.87161743162455</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>44.13217237922859</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>44.13217237922859</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U13" t="n">
-        <v>22.653131001028</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1607,16 +1607,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1649,19 +1649,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>28.88091821707974</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1807,13 +1807,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.13217237922859</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>19.9316902659215</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1889,19 +1889,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>44.13217237922859</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>28.88091821707974</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>44.13217237922859</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,28 +1923,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,16 +2053,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,31 +2078,31 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,28 +2160,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>134.6855069843875</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,22 +2205,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2281,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2318,73 +2318,73 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,22 +2403,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2448,13 +2448,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>23.46261801540494</v>
       </c>
       <c r="U24" t="n">
-        <v>206.6461104975764</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2597,31 +2597,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D27" t="n">
-        <v>126.358590200387</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2755,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="29">
@@ -2795,13 +2795,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>230.2038249569697</v>
       </c>
     </row>
     <row r="30">
@@ -2868,25 +2868,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>62.88143347497289</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>176.2637201985544</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2989,13 +2989,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3071,31 +3071,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="33">
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>61.0371398711081</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>142.8009741436499</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3320,13 +3320,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
@@ -3342,25 +3342,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>63.50968227731286</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>75.51506429132765</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -3399,13 +3399,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3463,10 +3463,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>133.186967585368</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3509,61 +3509,61 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.809496073036188</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G38" t="n">
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>137.0062620734511</v>
+        <v>103.97416132794</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3661,58 +3661,58 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3831,16 +3831,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3876,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>26.50530526285635</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>26.98580820205342</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3992,13 +3992,13 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>50.46697834767983</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4068,16 +4068,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>48.48515950437164</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>38.87161743162455</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4116,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,16 +4183,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>42.79483382228227</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>42.79483382228227</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>42.79483382228227</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>42.79483382228227</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.530573790338288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C3" t="n">
-        <v>3.530573790338288</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
-        <v>3.530573790338288</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>3.530573790338288</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>3.530573790338288</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>3.530573790338288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>45.45613755060546</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>89.14698820604177</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>132.8378388614781</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>132.8378388614781</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>176.5286895169144</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>137.2644294849704</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>92.68647758675968</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>48.10852568854899</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>48.10852568854899</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>48.10852568854899</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>48.10852568854899</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X3" t="n">
-        <v>48.10852568854899</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y3" t="n">
-        <v>48.10852568854899</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.530573790338288</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C4" t="n">
-        <v>3.530573790338288</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D4" t="n">
-        <v>3.530573790338288</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E4" t="n">
-        <v>3.530573790338288</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F4" t="n">
-        <v>3.530573790338288</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G4" t="n">
-        <v>3.530573790338288</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H4" t="n">
-        <v>3.530573790338288</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I4" t="n">
-        <v>3.530573790338288</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>137.2644294849704</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.68647758675968</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>48.10852568854899</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S4" t="n">
-        <v>3.530573790338288</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T4" t="n">
-        <v>3.530573790338288</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U4" t="n">
-        <v>3.530573790338288</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V4" t="n">
-        <v>3.530573790338288</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W4" t="n">
-        <v>3.530573790338288</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X4" t="n">
-        <v>3.530573790338288</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.530573790338288</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E5" t="n">
-        <v>176.5286895169144</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F5" t="n">
-        <v>131.9507376187037</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G5" t="n">
-        <v>87.37278572049297</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H5" t="n">
-        <v>42.79483382228227</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>3.530573790338288</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>45.45613755060546</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>89.14698820604177</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>132.8378388614781</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W6" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X6" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.530573790338288</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C7" t="n">
-        <v>3.530573790338288</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D7" t="n">
-        <v>3.530573790338288</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E7" t="n">
-        <v>3.530573790338288</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F7" t="n">
-        <v>3.530573790338288</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G7" t="n">
-        <v>3.530573790338288</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H7" t="n">
-        <v>3.530573790338288</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>3.530573790338288</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>3.530573790338288</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>135.3139342451479</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.73598234693722</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R7" t="n">
-        <v>46.15803044872652</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S7" t="n">
-        <v>3.530573790338288</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T7" t="n">
-        <v>3.530573790338288</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U7" t="n">
-        <v>3.530573790338288</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V7" t="n">
-        <v>3.530573790338288</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W7" t="n">
-        <v>3.530573790338288</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X7" t="n">
-        <v>3.530573790338288</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.530573790338288</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>104.756466833843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>176.5286895169144</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X8" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
-        <v>131.9507376187037</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>90.91227510121089</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>90.91227510121089</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>90.91227510121089</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>176.5286895169144</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>176.5286895169144</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>176.5286895169144</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>115.1809137745201</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I10" t="n">
-        <v>70.60296187630945</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>26.02500997809875</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>176.5286895169144</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>176.5286895169144</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U11" t="n">
-        <v>176.5286895169144</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V11" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W11" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X11" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y11" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C12" t="n">
-        <v>176.5286895169144</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D12" t="n">
-        <v>176.5286895169144</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E12" t="n">
-        <v>137.2644294849704</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F12" t="n">
-        <v>92.68647758675968</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G12" t="n">
-        <v>48.10852568854899</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>90.91227510121089</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>132.8378388614781</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O12" t="n">
-        <v>132.8378388614781</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C14" t="n">
-        <v>3.530573790338288</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D14" t="n">
-        <v>3.530573790338288</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E14" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>121.8591222504766</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>92.68647758675968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C15" t="n">
-        <v>3.530573790338288</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D15" t="n">
-        <v>3.530573790338288</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E15" t="n">
-        <v>3.530573790338288</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F15" t="n">
-        <v>3.530573790338288</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G15" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M15" t="n">
-        <v>47.22142444577459</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N15" t="n">
-        <v>90.91227510121089</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O15" t="n">
-        <v>132.8378388614781</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P15" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>92.68647758675968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.02500997809875</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C16" t="n">
-        <v>26.02500997809875</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D16" t="n">
-        <v>26.02500997809875</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E16" t="n">
-        <v>26.02500997809875</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F16" t="n">
-        <v>26.02500997809875</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G16" t="n">
-        <v>26.02500997809875</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H16" t="n">
-        <v>26.02500997809875</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I16" t="n">
-        <v>26.02500997809875</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J16" t="n">
-        <v>26.02500997809875</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>135.3139342451479</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.73598234693722</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>46.15803044872652</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S16" t="n">
-        <v>26.02500997809875</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T16" t="n">
-        <v>26.02500997809875</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U16" t="n">
-        <v>26.02500997809875</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V16" t="n">
-        <v>26.02500997809875</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W16" t="n">
-        <v>26.02500997809875</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X16" t="n">
-        <v>26.02500997809875</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.02500997809875</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>90.91227510121089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>134.6031257566472</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>121.8591222504766</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>92.68647758675968</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>48.10852568854899</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>3.530573790338288</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>3.530573790338288</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>3.530573790338288</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>3.530573790338288</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>3.530573790338288</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>3.530573790338288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>45.45613755060546</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>45.45613755060546</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>45.45613755060546</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>45.45613755060546</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O18" t="n">
-        <v>89.14698820604177</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>92.68647758675968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>231.8830517671884</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C20" t="n">
-        <v>231.8830517671884</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D20" t="n">
-        <v>231.8830517671884</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E20" t="n">
-        <v>231.8830517671884</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="F20" t="n">
-        <v>231.8830517671884</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G20" t="n">
-        <v>231.8830517671884</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W20" t="n">
-        <v>718.7806050553886</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X20" t="n">
-        <v>718.7806050553886</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y20" t="n">
-        <v>475.3318284112885</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>726.8416594126254</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>577.9072497513741</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5847,34 +5847,34 @@
         <v>735.0935810768601</v>
       </c>
       <c r="P21" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8876260635219</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W21" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X21" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5929,10 +5929,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
         <v>19.28114311021272</v>
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
         <v>19.28114311021272</v>
@@ -6020,19 +6020,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>110.334904905842</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="C24" t="n">
-        <v>110.334904905842</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="D24" t="n">
-        <v>110.334904905842</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="E24" t="n">
-        <v>110.334904905842</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F24" t="n">
-        <v>110.334904905842</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G24" t="n">
-        <v>110.334904905842</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,19 +6072,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>417.4543050195419</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6096,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>665.7706673572161</v>
       </c>
       <c r="U24" t="n">
-        <v>278.55024192591</v>
+        <v>665.7706673572161</v>
       </c>
       <c r="V24" t="n">
-        <v>278.55024192591</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="W24" t="n">
-        <v>278.55024192591</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="X24" t="n">
-        <v>278.55024192591</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="Y24" t="n">
-        <v>278.55024192591</v>
+        <v>430.6185591254734</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>795.8418184905681</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C27" t="n">
-        <v>795.8418184905681</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D27" t="n">
         <v>668.2068788942177</v>
@@ -6306,19 +6306,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6491,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>251.810259228364</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>900.5405560409666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>726.0875267598396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6546,46 +6546,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="W30" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X30" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
         <v>19.28114311021272</v>
@@ -6637,34 +6637,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U32" t="n">
-        <v>720.6083788665362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V32" t="n">
-        <v>477.1596022224361</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W32" t="n">
-        <v>477.1596022224361</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X32" t="n">
-        <v>233.7108255783361</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>554.1102621044483</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C33" t="n">
-        <v>379.6572328233214</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D33" t="n">
-        <v>318.0035561858384</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W33" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X33" t="n">
-        <v>761.8705608694022</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y33" t="n">
-        <v>554.1102621044483</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="34">
@@ -6841,22 +6841,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
         <v>19.28114311021272</v>
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6968,19 +6968,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W35" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>492.3847606029253</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C36" t="n">
-        <v>492.3847606029253</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D36" t="n">
-        <v>492.3847606029253</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="E36" t="n">
-        <v>333.1473055974698</v>
+        <v>313.2169245427344</v>
       </c>
       <c r="F36" t="n">
-        <v>186.6127476243547</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G36" t="n">
-        <v>186.6127476243547</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H36" t="n">
         <v>110.334904905842</v>
@@ -7017,22 +7017,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7047,19 +7047,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>492.3847606029253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>492.3847606029253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>492.3847606029253</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="37">
@@ -7111,19 +7111,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C38" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D38" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F38" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G38" t="n">
         <v>233.7108255783361</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7205,19 +7205,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>157.6713068207694</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="C39" t="n">
-        <v>157.6713068207694</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="D39" t="n">
-        <v>157.6713068207694</v>
+        <v>283.5430034974258</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6713068207694</v>
+        <v>124.3055484919703</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7257,46 +7257,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>496.4894350879777</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V39" t="n">
-        <v>533.6469426057913</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W39" t="n">
-        <v>533.6469426057913</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="X39" t="n">
-        <v>533.6469426057913</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="Y39" t="n">
-        <v>325.8866438408374</v>
+        <v>432.4774131586771</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C41" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D41" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E41" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="F41" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="C41" t="n">
+      <c r="G41" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D41" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E41" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F41" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G41" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="42">
@@ -7464,40 +7464,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>521.6723209211027</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C42" t="n">
-        <v>521.6723209211027</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D42" t="n">
-        <v>521.6723209211027</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E42" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
         <v>542.809531908403</v>
@@ -7524,16 +7524,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>937.2841198915894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>937.2841198915894</v>
+        <v>936.7987633873499</v>
       </c>
       <c r="X42" t="n">
-        <v>729.4326196860566</v>
+        <v>728.9472631818171</v>
       </c>
       <c r="Y42" t="n">
-        <v>521.6723209211027</v>
+        <v>521.1869644168632</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
         <v>19.28114311021272</v>
@@ -7600,19 +7600,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>92.68647758675968</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C44" t="n">
-        <v>92.68647758675968</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D44" t="n">
-        <v>92.68647758675968</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E44" t="n">
-        <v>48.10852568854899</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F44" t="n">
-        <v>48.10852568854899</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
-        <v>48.10852568854899</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>3.530573790338288</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>45.45613755060546</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U44" t="n">
-        <v>176.5286895169144</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V44" t="n">
-        <v>131.9507376187037</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W44" t="n">
-        <v>92.68647758675968</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X44" t="n">
-        <v>92.68647758675968</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y44" t="n">
-        <v>92.68647758675968</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>48.10852568854899</v>
+        <v>243.4632136343998</v>
       </c>
       <c r="C45" t="n">
-        <v>48.10852568854899</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="D45" t="n">
-        <v>48.10852568854899</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="E45" t="n">
-        <v>48.10852568854899</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="F45" t="n">
-        <v>48.10852568854899</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="G45" t="n">
-        <v>3.530573790338288</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="H45" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>47.22142444577459</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N45" t="n">
-        <v>90.91227510121089</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O45" t="n">
-        <v>134.6031257566472</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P45" t="n">
-        <v>176.5286895169144</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q45" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>137.2644294849704</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>92.68647758675968</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>48.10852568854899</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>48.10852568854899</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V45" t="n">
-        <v>48.10852568854899</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W45" t="n">
-        <v>48.10852568854899</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X45" t="n">
-        <v>48.10852568854899</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y45" t="n">
-        <v>48.10852568854899</v>
+        <v>411.6785506544679</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C46" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D46" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E46" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F46" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G46" t="n">
-        <v>3.530573790338288</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H46" t="n">
-        <v>3.530573790338288</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I46" t="n">
-        <v>3.530573790338288</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J46" t="n">
-        <v>3.530573790338288</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K46" t="n">
-        <v>3.530573790338288</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L46" t="n">
-        <v>30.84469879805127</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M46" t="n">
-        <v>70.03273699027345</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N46" t="n">
-        <v>113.7235876457098</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O46" t="n">
-        <v>138.062864280609</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P46" t="n">
-        <v>138.062864280609</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.062864280609</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R46" t="n">
-        <v>138.062864280609</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S46" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T46" t="n">
-        <v>92.68647758675968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U46" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V46" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W46" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X46" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>180.1904932776592</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>186.2662063012469</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,22 +8295,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>182.6865521591028</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O9" t="n">
-        <v>184.9452987477446</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>186.2662063012469</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N12" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>184.9452987477446</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>178.1065797935588</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>273.5820500585697</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>180.1904932776592</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>186.728416823673</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9495,10 +9495,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,10 +9720,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9732,10 +9732,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10194,22 +10194,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M30" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10440,13 +10440,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,13 +10677,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>312.5030352242461</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,7 +10905,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10914,13 +10914,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>312.04082470182</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11297,22 +11297,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11382,19 +11382,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>176.3234617176304</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22556,19 +22556,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22592,16 +22592,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>347.366321224429</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,31 +22623,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>122.4010112706387</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,13 +22671,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>61.28621672101858</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22726,7 +22726,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>49.05569651810563</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22744,16 +22744,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.930990287424243</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.02987087246579</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22790,19 +22790,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F5" t="n">
-        <v>362.7438733624829</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>371.1705651359065</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>295.3426297365386</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>171.6042721387814</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22869,16 +22869,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>118.7734630237764</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22908,22 +22908,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22963,10 +22963,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,13 +22984,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.02987087246579</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23018,7 +23018,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23033,16 +23033,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>388.380409438123</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23081,13 +23081,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>342.105766276825</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23106,16 +23106,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>118.7734630237764</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23145,22 +23145,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23194,13 +23194,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>111.3183025480297</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
-        <v>49.22700773744418</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,7 +23218,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23267,16 +23267,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>362.7438733624829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>171.6042721387814</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,22 +23300,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23337,25 +23337,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>118.7734630237764</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>100.9370400141553</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>68.10327185726787</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23440,7 +23440,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>183.8134170490529</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U13" t="n">
-        <v>263.6658983554629</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23495,16 +23495,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23537,19 +23537,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>180.1391513691656</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,16 +23619,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>61.28621672101858</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23674,7 +23674,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,13 +23695,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.02987087246579</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>204.0849077710508</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23777,19 +23777,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>105.7369455619211</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>180.1391513691656</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>178.9636771849028</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>207.2134805286079</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,28 +23811,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,16 +23856,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>61.28621672101858</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>145.6435121988869</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23932,7 +23932,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23941,16 +23941,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
-        <v>242.3908259573624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23978,19 +23978,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24023,19 +24023,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>61.00025583355162</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>347.4314726443769</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24048,28 +24048,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>38.02299200392821</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,22 +24093,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24169,13 +24169,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24206,13 +24206,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24260,19 +24260,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24291,22 +24291,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24336,13 +24336,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>176.7021106794166</v>
       </c>
       <c r="U24" t="n">
-        <v>19.29527158339846</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24367,7 +24367,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24485,31 +24485,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24519,13 +24519,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D27" t="n">
-        <v>21.08647536425178</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24643,10 +24643,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="29">
@@ -24683,13 +24683,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24731,7 +24731,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>156.0341136990839</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24756,25 +24756,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>103.6517501748945</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24804,22 +24804,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>75.43126296236522</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24853,7 +24853,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
         <v>155.4504749272583</v>
@@ -24877,13 +24877,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>298.3140538843193</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24959,31 +24959,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.9525530126115</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,22 +24993,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>86.40792569353066</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,13 +25041,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25059,7 +25059,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>62.97201105982759</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,16 +25090,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>144.6688768646272</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25175,7 +25175,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25208,13 +25208,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>148.9048724285834</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
@@ -25230,25 +25230,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>81.55953011607102</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>36.72037994516882</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25287,13 +25287,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25351,10 +25351,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25366,7 +25366,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>242.0155457579237</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25397,22 +25397,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25445,13 +25445,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25467,19 +25467,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>8.06295031993281</v>
+        <v>41.0950510654439</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25536,7 +25536,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,25 +25625,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25685,7 +25685,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>125.4575720412377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25719,16 +25719,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25764,10 +25764,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>206.2952818865689</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>224.7091749588662</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G43" t="n">
         <v>167.9909793584588</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,16 +25862,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>337.7981976930332</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25880,13 +25880,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,7 +25910,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25919,19 +25919,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>283.6200860909063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>310.3693512857885</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>335.7709603083737</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25941,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25956,16 +25956,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>63.75028473212483</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,13 +25989,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>61.28621672101858</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26004,13 +26004,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26071,16 +26071,16 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>223.22614758929</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>242.1868569772623</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>208.0054709445994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>352681.3657860367</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>352681.3657860367</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>352681.3657860367</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>352681.3657860367</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>352681.3657860368</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>352681.3657860367</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>352681.3657860367</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65754.15294315929</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="C2" t="n">
-        <v>65754.15294315931</v>
+        <v>91388.36989223277</v>
       </c>
       <c r="D2" t="n">
-        <v>65754.15294315935</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="E2" t="n">
-        <v>65754.15294315931</v>
+        <v>91388.36989223285</v>
       </c>
       <c r="F2" t="n">
-        <v>65754.15294315931</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="G2" t="n">
-        <v>65754.15294315929</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="H2" t="n">
-        <v>91388.36989223277</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="I2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="J2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="K2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="L2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="M2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="N2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="O2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="P2" t="n">
-        <v>65754.15294315932</v>
+        <v>91388.3698922328</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999088</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2376.667003714483</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="C4" t="n">
-        <v>2376.667003714483</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>2376.667003714483</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>2376.667003714483</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="F4" t="n">
-        <v>2376.667003714483</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
-        <v>2376.667003714483</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="K4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="O4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>2376.667003714483</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26509,7 +26509,7 @@
         <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12276.94385454348</v>
+        <v>-37841.86290078057</v>
       </c>
       <c r="C6" t="n">
-        <v>27066.64985878773</v>
+        <v>42927.56863076714</v>
       </c>
       <c r="D6" t="n">
-        <v>27066.64985878777</v>
+        <v>42927.56863076717</v>
       </c>
       <c r="E6" t="n">
-        <v>60694.24985878773</v>
+        <v>76555.16863076721</v>
       </c>
       <c r="F6" t="n">
-        <v>60694.24985878773</v>
+        <v>76555.16863076716</v>
       </c>
       <c r="G6" t="n">
-        <v>60694.24985878771</v>
+        <v>76555.16863076715</v>
       </c>
       <c r="H6" t="n">
-        <v>20166.01628089584</v>
+        <v>76555.16863076716</v>
       </c>
       <c r="I6" t="n">
-        <v>73286.58325122092</v>
+        <v>76555.16863076718</v>
       </c>
       <c r="J6" t="n">
-        <v>61739.66514123006</v>
+        <v>13495.22603166094</v>
       </c>
       <c r="K6" t="n">
-        <v>73286.5832512209</v>
+        <v>76555.16863076718</v>
       </c>
       <c r="L6" t="n">
-        <v>73286.58325122092</v>
+        <v>76555.16863076718</v>
       </c>
       <c r="M6" t="n">
-        <v>73286.5832512209</v>
+        <v>76555.16863076718</v>
       </c>
       <c r="N6" t="n">
-        <v>73286.58325122092</v>
+        <v>76555.16863076718</v>
       </c>
       <c r="O6" t="n">
-        <v>73286.58325122089</v>
+        <v>76555.16863076716</v>
       </c>
       <c r="P6" t="n">
-        <v>60694.24985878774</v>
+        <v>76555.16863076716</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26829,7 +26829,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922856</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>42.34905430330019</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>44.13217237922859</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>42.34905430330019</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O9" t="n">
-        <v>42.34905430330019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>42.34905430330018</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>44.13217237922859</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N12" t="n">
-        <v>42.34905430330019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>42.34905430330019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>44.13217237922859</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>42.34905430330016</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>44.13217237922859</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P18" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36215,10 +36215,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36452,10 +36452,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36914,22 +36914,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M30" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37160,13 +37160,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37397,13 +37397,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>169.9067907798016</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37634,13 +37634,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38017,22 +38017,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>42.34905430330018</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38102,19 +38102,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>42.34905430330016</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>438336.2585840487</v>
+        <v>440041.0145983154</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>925399.3994514375</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -701,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -738,25 +740,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -786,19 +788,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -856,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -902,58 +904,58 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T5" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I5" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -990,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>86.12049602088146</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,7 +1025,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -1035,7 +1037,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1075,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.83685490770591</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,31 +1132,31 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770591</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1379,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,22 +1414,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1449,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>146.1932996118735</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1470,7 +1472,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1607,70 +1609,70 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>21.85442600983729</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D14" t="n">
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E14" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1786,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1862,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1938,13 +1940,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>23.26470831312118</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2044,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2090,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>92.95466700954542</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
@@ -2099,10 +2101,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2175,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>12.76162531453364</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>35.40726547353833</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2245,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2372,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>212.2853856434421</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="24">
@@ -2403,16 +2405,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>23.46261801540494</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="25">
@@ -2479,64 +2481,64 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,73 +2554,73 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>241.0142888776591</v>
@@ -2634,28 +2636,28 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2685,19 +2687,19 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>241.0142888776591</v>
@@ -2804,7 +2806,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2834,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>160.6082254763319</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2919,19 +2921,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>176.2637201985544</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2989,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3050,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3086,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3162,16 +3164,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>82.37559015745697</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>142.8009741436499</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3193,61 +3195,61 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3320,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="W35" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
@@ -3342,31 +3344,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>62.86349518004438</v>
       </c>
       <c r="F36" t="n">
-        <v>63.50968227731286</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3399,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3463,10 +3465,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3509,22 +3511,22 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3557,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3585,13 +3587,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="F39" t="n">
-        <v>103.97416132794</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3627,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -3639,7 +3641,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3749,61 +3751,61 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>190.3453970742849</v>
+      </c>
+      <c r="X41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3819,13 +3821,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>116.325098768111</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3879,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>26.98580820205342</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3907,49 +3909,49 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3977,19 +3979,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4019,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -4031,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>50.46697834767983</v>
+        <v>40.47627913313517</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4058,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>121.186763950509</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4071,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>48.48515950437164</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4147,49 +4149,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C2" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D2" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E2" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F2" t="n">
-        <v>730.8505943024719</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G2" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4410,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4434,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X3" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y3" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4659,10 +4661,10 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>197.3253049269343</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4744,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4841,13 +4843,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,16 +4889,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
         <v>136.0777814360265</v>
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="12">
@@ -5097,43 +5099,43 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C12" t="n">
-        <v>816.3871559026832</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D12" t="n">
-        <v>667.4527462414319</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E12" t="n">
-        <v>508.2152912359765</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F12" t="n">
-        <v>361.6807332628614</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G12" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C14" t="n">
-        <v>720.6083788665362</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D14" t="n">
-        <v>477.1596022224361</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5303,25 +5305,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>496.4894350879777</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O15" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5382,25 +5384,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5458,28 +5460,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5549,16 +5551,16 @@
         <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>328.0462318675013</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>181.5116738943863</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>42.7808484770018</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5601,10 +5603,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8852890990952</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="19">
@@ -5692,19 +5694,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>761.6974622895962</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C20" t="n">
-        <v>761.6974622895962</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="D20" t="n">
-        <v>761.6974622895962</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="E20" t="n">
-        <v>761.6974622895962</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="F20" t="n">
-        <v>518.2486856454962</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G20" t="n">
-        <v>274.7999090013961</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U20" t="n">
-        <v>761.6974622895962</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V20" t="n">
-        <v>761.6974622895962</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W20" t="n">
-        <v>761.6974622895962</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X20" t="n">
-        <v>761.6974622895962</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y20" t="n">
-        <v>761.6974622895962</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>145.5408093233744</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>145.5408093233744</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>145.5408093233744</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>145.5408093233744</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>145.5408093233744</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>145.5408093233744</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>32.17167373095377</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5832,19 +5834,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>928.2922408909005</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>726.1056462496665</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>497.8820279860555</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V21" t="n">
-        <v>262.7299197543128</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>145.5408093233744</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
         <v>19.28114311021272</v>
@@ -6020,19 +6022,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>430.6185591254734</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>430.6185591254734</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>430.6185591254734</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6069,49 +6071,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>665.7706673572161</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>665.7706673572161</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>430.6185591254734</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>430.6185591254734</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>430.6185591254734</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>430.6185591254734</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="C26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C26" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
         <v>19.28114311021272</v>
@@ -6263,13 +6265,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X27" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H28" t="n">
         <v>829.5248650203655</v>
@@ -6427,7 +6429,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C29" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D29" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E29" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="F29" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6546,16 +6548,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>432.4774131586771</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V30" t="n">
-        <v>197.3253049269343</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W30" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X30" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="31">
@@ -6637,19 +6639,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>591.4512093066566</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W32" t="n">
-        <v>591.4512093066566</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X32" t="n">
-        <v>591.4512093066566</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y32" t="n">
-        <v>348.0024326625565</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>342.668582052591</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C33" t="n">
-        <v>168.215552771464</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,46 +6785,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>880.8494886849221</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>645.6973804531794</v>
       </c>
       <c r="W33" t="n">
-        <v>862.8876260635219</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="X33" t="n">
-        <v>718.6442178376129</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y33" t="n">
-        <v>510.883919072659</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
         <v>19.28114311021272</v>
@@ -6895,13 +6897,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C35" t="n">
         <v>31.35113235729608</v>
@@ -6968,19 +6970,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>477.1596022224361</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W35" t="n">
-        <v>274.7999090013961</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X35" t="n">
-        <v>31.35113235729608</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.35113235729608</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>795.8418184905681</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C36" t="n">
-        <v>621.3887892094411</v>
+        <v>82.77962309005554</v>
       </c>
       <c r="D36" t="n">
-        <v>472.4543795481899</v>
+        <v>82.77962309005554</v>
       </c>
       <c r="E36" t="n">
-        <v>313.2169245427344</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7023,16 +7025,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7047,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
         <v>19.28114311021272</v>
@@ -7111,34 +7113,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D38" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E38" t="n">
-        <v>233.7108255783361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F38" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G38" t="n">
         <v>233.7108255783361</v>
       </c>
       <c r="H38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7205,19 +7207,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>432.4774131586771</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C39" t="n">
-        <v>432.4774131586771</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D39" t="n">
-        <v>283.5430034974258</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="E39" t="n">
-        <v>124.3055484919703</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7257,16 +7259,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>432.4774131586771</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V39" t="n">
-        <v>432.4774131586771</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W39" t="n">
-        <v>432.4774131586771</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X39" t="n">
-        <v>432.4774131586771</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y39" t="n">
-        <v>432.4774131586771</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C41" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D41" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E41" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F41" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y41" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>352.9716273967953</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C42" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
         <v>19.28114311021272</v>
@@ -7491,22 +7493,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7527,13 +7529,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>936.7987633873499</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X42" t="n">
-        <v>728.9472631818171</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y42" t="n">
-        <v>521.1869644168632</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
         <v>19.28114311021272</v>
@@ -7597,22 +7599,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>518.2486856454962</v>
+      </c>
+      <c r="C44" t="n">
+        <v>518.2486856454962</v>
+      </c>
+      <c r="D44" t="n">
+        <v>518.2486856454962</v>
+      </c>
+      <c r="E44" t="n">
+        <v>518.2486856454962</v>
+      </c>
+      <c r="F44" t="n">
         <v>274.7999090013961</v>
-      </c>
-      <c r="C44" t="n">
-        <v>31.35113235729608</v>
-      </c>
-      <c r="D44" t="n">
-        <v>31.35113235729608</v>
-      </c>
-      <c r="E44" t="n">
-        <v>31.35113235729608</v>
-      </c>
-      <c r="F44" t="n">
-        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
         <v>31.35113235729608</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U44" t="n">
-        <v>569.2254314512334</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V44" t="n">
-        <v>569.2254314512334</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W44" t="n">
-        <v>569.2254314512334</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X44" t="n">
-        <v>569.2254314512334</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y44" t="n">
-        <v>518.2486856454962</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>243.4632136343998</v>
+        <v>142.4461484402802</v>
       </c>
       <c r="C45" t="n">
-        <v>69.01018435327282</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>69.01018435327282</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>69.01018435327282</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>69.01018435327282</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>69.01018435327282</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
         <v>20.03527576299844</v>
@@ -7728,49 +7730,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V45" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W45" t="n">
-        <v>619.4388494194218</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X45" t="n">
-        <v>619.4388494194218</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y45" t="n">
-        <v>411.6785506544679</v>
+        <v>310.6614854603483</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8307,13 +8309,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P6" t="n">
-        <v>247.3552705420797</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,19 +8537,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9249,13 +9251,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,16 +9965,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>231.1529892133072</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,19 +10196,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10431,22 +10433,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10671,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O36" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,19 +10907,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11139,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>197.6503338623806</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22556,16 +22558,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22589,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>160.9567151697601</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22613,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22626,25 +22628,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22674,19 +22676,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22726,7 +22728,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>49.05569651810563</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22744,16 +22746,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22790,19 +22792,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22826,22 +22828,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22878,13 +22880,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>26.114948215615</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22911,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -22923,7 +22925,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22963,10 +22965,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>71.32518834398849</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23030,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23081,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23100,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23197,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23218,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23267,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,22 +23302,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23337,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>26.51519937644221</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23358,7 +23360,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23495,28 +23497,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>393.4483115052977</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23552,13 +23554,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23574,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23622,19 +23624,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23674,10 +23676,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23750,10 +23752,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>120.0869518323295</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23789,7 +23791,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,10 +23813,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23826,13 +23828,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>88.97073592337529</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23932,10 +23934,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23947,7 +23949,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23978,7 +23980,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>313.921378732166</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
@@ -23987,10 +23989,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24023,7 +24025,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>61.00025583355162</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24063,10 +24065,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>76.63500753688145</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24096,25 +24098,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>136.2759056302995</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24133,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24203,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24260,19 +24262,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>173.9525530126115</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="24">
@@ -24291,16 +24293,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24330,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>176.7021106794166</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="25">
@@ -24367,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24503,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>145.2236497783945</v>
@@ -24522,28 +24524,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24573,19 +24575,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24616,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>140.9160811946027</v>
@@ -24692,7 +24694,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24746,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>5.924958173535487</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24765,10 +24767,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24807,19 +24809,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>75.43126296236522</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24877,13 +24879,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24892,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>298.3140538843193</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24938,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,13 +24961,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24974,7 +24976,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>127.4161621813053</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25050,16 +25052,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>143.5657919235178</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>62.97201105982759</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25208,13 +25210,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>127.4161621813053</v>
       </c>
       <c r="W35" t="n">
-        <v>148.9048724285834</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
@@ -25230,31 +25232,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>94.78158527535656</v>
       </c>
       <c r="F36" t="n">
-        <v>81.55953011607102</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25287,13 +25289,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25324,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25351,10 +25353,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25366,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>242.0155457579237</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25397,22 +25399,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25445,13 +25447,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25473,13 +25475,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>52.90669720804131</v>
       </c>
       <c r="F39" t="n">
-        <v>41.0950510654439</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25515,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25527,7 +25529,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25567,7 +25569,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -25600,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>170.4484560200386</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25637,19 +25639,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25688,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>158.8955716431281</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25707,13 +25709,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>56.38340022020472</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25767,7 +25769,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>224.7091749588662</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.9909793584588</v>
@@ -25837,7 +25839,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25865,7 +25867,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25874,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -25919,7 +25921,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>335.7709603083737</v>
+        <v>345.7616595229184</v>
       </c>
     </row>
     <row r="45">
@@ -25944,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>51.52173503780676</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25959,7 +25961,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>63.75028473212483</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25989,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="C2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="D2" t="n">
+        <v>91388.36989223277</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="F2" t="n">
+        <v>91388.36989223285</v>
+      </c>
+      <c r="G2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="H2" t="n">
+        <v>91388.36989223285</v>
+      </c>
+      <c r="I2" t="n">
         <v>91388.3698922328</v>
-      </c>
-      <c r="C2" t="n">
-        <v>91388.36989223277</v>
-      </c>
-      <c r="D2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="E2" t="n">
-        <v>91388.36989223285</v>
-      </c>
-      <c r="F2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="G2" t="n">
-        <v>91388.36989223279</v>
-      </c>
-      <c r="H2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="I2" t="n">
-        <v>91388.36989223282</v>
       </c>
       <c r="J2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="K2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="L2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="M2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="N2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="O2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="P2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223285</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26424,7 +26426,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
         <v>179.5324977039669</v>
@@ -26439,7 +26441,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
         <v>179.5324977039669</v>
@@ -26451,7 +26453,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
         <v>179.5324977039669</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37841.86290078057</v>
+        <v>-37841.86290078053</v>
       </c>
       <c r="C6" t="n">
-        <v>42927.56863076714</v>
+        <v>42927.56863076718</v>
       </c>
       <c r="D6" t="n">
-        <v>42927.56863076717</v>
+        <v>42927.56863076713</v>
       </c>
       <c r="E6" t="n">
+        <v>76555.16863076718</v>
+      </c>
+      <c r="F6" t="n">
         <v>76555.16863076721</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>76555.16863076719</v>
+      </c>
+      <c r="H6" t="n">
+        <v>76555.16863076721</v>
+      </c>
+      <c r="I6" t="n">
         <v>76555.16863076716</v>
-      </c>
-      <c r="G6" t="n">
-        <v>76555.16863076715</v>
-      </c>
-      <c r="H6" t="n">
-        <v>76555.16863076716</v>
-      </c>
-      <c r="I6" t="n">
-        <v>76555.16863076718</v>
       </c>
       <c r="J6" t="n">
         <v>13495.22603166094</v>
       </c>
       <c r="K6" t="n">
-        <v>76555.16863076718</v>
+        <v>76555.16863076719</v>
       </c>
       <c r="L6" t="n">
         <v>76555.16863076718</v>
       </c>
       <c r="M6" t="n">
-        <v>76555.16863076718</v>
+        <v>76555.16863076715</v>
       </c>
       <c r="N6" t="n">
-        <v>76555.16863076718</v>
+        <v>76555.16863076719</v>
       </c>
       <c r="O6" t="n">
         <v>76555.16863076716</v>
       </c>
       <c r="P6" t="n">
-        <v>76555.16863076716</v>
+        <v>76555.16863076721</v>
       </c>
     </row>
   </sheetData>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34945,7 +34947,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35027,13 +35029,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P6" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,7 +35181,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35255,19 +35257,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35416,10 +35418,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35893,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35969,13 +35971,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36683,16 +36685,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>99.8112771299739</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37075,7 +37077,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37151,22 +37153,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,19 +37393,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
+        <v>169.9091475161415</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37786,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37859,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>55.51629994036225</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38114,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>440041.0145983154</v>
+        <v>337788.7049113787</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514375</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>89.98138655216532</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>3.833957768458675</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -940,31 +940,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -986,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>22.98080607693674</v>
       </c>
       <c r="H6" t="n">
-        <v>86.12049602088146</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,22 +1177,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>23.13918734298657</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1387,58 +1387,58 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,28 +1451,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>138.770793918182</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1514,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,22 +1615,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>21.85442600983729</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>123.3365499318637</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -1748,7 +1748,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>104.7383832473596</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -1900,7 +1900,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1931,16 +1931,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>23.26470831312118</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="19">
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>92.95466700954542</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>12.76162531453364</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="22">
@@ -2247,52 +2247,52 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2317,26 +2317,26 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2645,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2681,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>121.0433212827291</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>35.40726547353844</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2730,37 +2730,37 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>241.0142888776591</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2870,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>160.6082254763319</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>92.77299717368913</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3031,67 +3031,67 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="I32" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>200.3360962888297</v>
-      </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3110,28 +3110,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>52.0628898883872</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,10 +3164,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>82.37559015745697</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,73 +3265,73 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>112.3289263072337</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3347,19 +3347,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>62.86349518004438</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3438,49 +3438,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>241.0142888776591</v>
@@ -3520,7 +3520,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
     </row>
     <row r="39">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3599,13 +3599,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3632,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>92.60152418529817</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,19 +3751,19 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3784,10 +3784,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>58.64124924790705</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,19 +4021,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>121.186763950509</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4118,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C2" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>274.7999090013961</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y2" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4424,37 +4424,37 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>873.1668660640046</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>873.1668660640046</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>873.1668660640046</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>644.9432478003937</v>
       </c>
       <c r="V3" t="n">
-        <v>23.90796037760316</v>
+        <v>644.9432478003937</v>
       </c>
       <c r="W3" t="n">
-        <v>20.03527576299844</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="X3" t="n">
-        <v>20.03527576299844</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
         <v>19.28114311021272</v>
@@ -4515,25 +4515,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>122.6530896684844</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V5" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W5" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>197.3253049269343</v>
+        <v>189.028636514577</v>
       </c>
       <c r="C6" t="n">
-        <v>197.3253049269343</v>
+        <v>189.028636514577</v>
       </c>
       <c r="D6" t="n">
-        <v>197.3253049269343</v>
+        <v>189.028636514577</v>
       </c>
       <c r="E6" t="n">
-        <v>197.3253049269343</v>
+        <v>189.028636514577</v>
       </c>
       <c r="F6" t="n">
-        <v>197.3253049269343</v>
+        <v>42.49407854146196</v>
       </c>
       <c r="G6" t="n">
-        <v>197.3253049269343</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4682,16 +4682,16 @@
         <v>432.4774131586771</v>
       </c>
       <c r="V6" t="n">
-        <v>197.3253049269343</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W6" t="n">
-        <v>197.3253049269343</v>
+        <v>189.028636514577</v>
       </c>
       <c r="X6" t="n">
-        <v>197.3253049269343</v>
+        <v>189.028636514577</v>
       </c>
       <c r="Y6" t="n">
-        <v>197.3253049269343</v>
+        <v>189.028636514577</v>
       </c>
     </row>
     <row r="7">
@@ -4743,25 +4743,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>210.869396638348</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>210.869396638348</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4998,16 +4998,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="12">
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>307.1033079837604</v>
       </c>
       <c r="C12" t="n">
-        <v>817.1412885554689</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>726.4525409563269</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O12" t="n">
         <v>964.0571555106362</v>
@@ -5144,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>722.7151069542472</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>722.7151069542472</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>722.7151069542472</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>722.7151069542472</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>514.8636067487143</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>307.1033079837604</v>
       </c>
     </row>
     <row r="13">
@@ -5223,10 +5223,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
         <v>19.28114311021272</v>
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C14" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D14" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E14" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H14" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5305,25 +5305,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>266.0282188019862</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>266.0282188019862</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H15" t="n">
         <v>19.28114311021272</v>
@@ -5363,13 +5363,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
         <v>781.4136778972854</v>
@@ -5384,25 +5384,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>360.2295980564601</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V15" t="n">
-        <v>125.0774898247174</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W15" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="16">
@@ -5454,10 +5454,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
         <v>19.28114311021272</v>
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>122.6530896684844</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="C17" t="n">
-        <v>122.6530896684844</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="D17" t="n">
-        <v>122.6530896684844</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="E17" t="n">
-        <v>122.6530896684844</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="F17" t="n">
-        <v>122.6530896684844</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G17" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V17" t="n">
-        <v>122.6530896684844</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W17" t="n">
-        <v>122.6530896684844</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X17" t="n">
-        <v>122.6530896684844</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y17" t="n">
-        <v>122.6530896684844</v>
+        <v>527.5764290961142</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>328.0462318675013</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>181.5116738943863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>42.7808484770018</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
         <v>19.28114311021272</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>487.2836868729568</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>487.2836868729568</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>487.2836868729568</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X18" t="n">
-        <v>487.2836868729568</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y18" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5694,22 +5694,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W20" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X20" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>145.5408093233744</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>145.5408093233744</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>145.5408093233744</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>145.5408093233744</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>145.5408093233744</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>145.5408093233744</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>32.17167373095377</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5840,16 +5840,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>353.3011080883284</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>353.3011080883284</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>353.3011080883284</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
-        <v>145.5408093233744</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5968,19 +5968,19 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G23" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D23" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G23" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6171,19 +6171,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G26" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6256,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6308,19 +6308,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>740.6216449698561</v>
       </c>
       <c r="U27" t="n">
-        <v>533.6469426057913</v>
+        <v>512.3980267062451</v>
       </c>
       <c r="V27" t="n">
-        <v>298.4948343740486</v>
+        <v>512.3980267062451</v>
       </c>
       <c r="W27" t="n">
-        <v>55.04605772994853</v>
+        <v>512.3980267062451</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
         <v>262.7299197543128</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>325.0531560887832</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="C30" t="n">
-        <v>325.0531560887832</v>
+        <v>453.4809361619635</v>
       </c>
       <c r="D30" t="n">
-        <v>325.0531560887832</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E30" t="n">
-        <v>165.8157010833278</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6554,7 +6554,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>613.2059550252818</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U30" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V30" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W30" t="n">
-        <v>487.2836868729568</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X30" t="n">
-        <v>487.2836868729568</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y30" t="n">
-        <v>487.2836868729568</v>
+        <v>547.1910343172051</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
         <v>19.28114311021272</v>
@@ -6654,19 +6654,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>761.6974622895962</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C32" t="n">
-        <v>518.2486856454962</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D32" t="n">
-        <v>518.2486856454962</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E32" t="n">
-        <v>274.7999090013961</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K32" t="n">
         <v>122.2961490211351</v>
@@ -6733,19 +6733,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V32" t="n">
-        <v>761.6974622895962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W32" t="n">
-        <v>761.6974622895962</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X32" t="n">
-        <v>761.6974622895962</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y32" t="n">
-        <v>761.6974622895962</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>194.4883050441255</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>470.5044397581705</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6785,16 +6785,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>880.8494886849221</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>645.6973804531794</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W33" t="n">
-        <v>402.2486038090794</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X33" t="n">
-        <v>402.2486038090794</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y33" t="n">
-        <v>194.4883050441255</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="34">
@@ -6891,10 +6891,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>274.7999090013961</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V35" t="n">
-        <v>761.6974622895962</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W35" t="n">
-        <v>761.6974622895962</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X35" t="n">
-        <v>518.2486856454962</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y35" t="n">
-        <v>518.2486856454962</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>257.2326523711826</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C36" t="n">
-        <v>82.77962309005554</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D36" t="n">
-        <v>82.77962309005554</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7019,13 +7019,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
         <v>542.809531908403</v>
@@ -7058,10 +7058,10 @@
         <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>257.2326523711826</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>257.2326523711826</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
         <v>19.28114311021272</v>
@@ -7128,19 +7128,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>125.0774898247174</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C39" t="n">
-        <v>125.0774898247174</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D39" t="n">
-        <v>125.0774898247174</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>588.4532163200711</v>
+        <v>870.5202623941734</v>
       </c>
       <c r="U39" t="n">
-        <v>360.2295980564601</v>
+        <v>870.5202623941734</v>
       </c>
       <c r="V39" t="n">
-        <v>125.0774898247174</v>
+        <v>635.3681541624308</v>
       </c>
       <c r="W39" t="n">
-        <v>125.0774898247174</v>
+        <v>391.9193775183306</v>
       </c>
       <c r="X39" t="n">
-        <v>125.0774898247174</v>
+        <v>391.9193775183306</v>
       </c>
       <c r="Y39" t="n">
-        <v>125.0774898247174</v>
+        <v>391.9193775183306</v>
       </c>
     </row>
     <row r="40">
@@ -7320,13 +7320,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
         <v>19.28114311021272</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>274.7999090013961</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C41" t="n">
-        <v>274.7999090013961</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="D41" t="n">
-        <v>274.7999090013961</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="E41" t="n">
-        <v>274.7999090013961</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="F41" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W41" t="n">
-        <v>761.6974622895962</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X41" t="n">
-        <v>518.2486856454962</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y41" t="n">
-        <v>518.2486856454962</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>136.7812428759814</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F42" t="n">
         <v>19.28114311021272</v>
@@ -7499,43 +7499,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>803.6540409646259</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>568.5019327328832</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="X42" t="n">
-        <v>512.7568786610034</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="Y42" t="n">
-        <v>304.9965798960495</v>
+        <v>325.0531560887832</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
         <v>19.28114311021272</v>
@@ -7599,22 +7599,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>518.2486856454962</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C44" t="n">
-        <v>518.2486856454962</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D44" t="n">
-        <v>518.2486856454962</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E44" t="n">
-        <v>518.2486856454962</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="F44" t="n">
-        <v>274.7999090013961</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U44" t="n">
-        <v>802.5825927271064</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V44" t="n">
-        <v>802.5825927271064</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W44" t="n">
-        <v>802.5825927271064</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X44" t="n">
-        <v>802.5825927271064</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y44" t="n">
-        <v>761.6974622895962</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>142.4461484402802</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
         <v>20.03527576299844</v>
@@ -7736,13 +7736,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>761.8705608694022</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="U45" t="n">
-        <v>761.8705608694022</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="V45" t="n">
-        <v>761.8705608694022</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="W45" t="n">
-        <v>518.4217842253022</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="X45" t="n">
-        <v>518.4217842253022</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="Y45" t="n">
-        <v>310.6614854603483</v>
+        <v>817.1412885554689</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I46" t="n">
         <v>19.28114311021272</v>
@@ -7839,19 +7839,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8072,13 +8072,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,13 +8309,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,10 +8546,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P9" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8783,7 +8783,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>382.6009056104135</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -9011,16 +9011,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N15" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9488,7 +9488,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>241.9453110519923</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,13 +9965,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10202,10 +10202,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O30" t="n">
-        <v>312.5030352242461</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10433,10 +10433,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>303.312501347746</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10445,7 +10445,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>301.2508595994748</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11147,19 +11147,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11384,16 +11384,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22549,10 +22549,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>160.9567151697601</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>10.17644760047781</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>247.8610253924609</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22725,7 +22725,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -22755,7 +22755,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>286.8247010151207</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22874,19 +22874,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>114.3627110862739</v>
       </c>
       <c r="H6" t="n">
-        <v>26.114948215615</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22922,10 +22922,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23035,16 +23035,16 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,22 +23065,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,10 +23147,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23159,16 +23159,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>182.5435084343178</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23238,7 +23238,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23275,13 +23275,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23339,28 +23339,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>61.39393477663964</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23402,10 +23402,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23463,13 +23463,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,22 +23503,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>393.4483115052977</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23554,16 +23554,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23579,7 +23579,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>24.10851563277508</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23591,7 +23591,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23624,10 +23624,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23636,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>146.95659991356</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23740,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>394.1189821444107</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>120.0869518323295</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23819,16 +23819,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>88.97073592337529</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="19">
@@ -23934,10 +23934,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>313.921378732166</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>317.3055321907215</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24065,10 +24065,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>76.63500753688145</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24098,25 +24098,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="22">
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24253,16 +24253,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>171.0109458920165</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,10 +24445,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24457,10 +24457,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24496,22 +24496,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>97.54843351316518</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24533,10 +24533,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24569,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>79.12140741209247</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>170.365719729939</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24618,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24648,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,10 +24688,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>174.288448637476</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24733,13 +24733,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>21.14182795086677</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24758,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5.924958173535487</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>79.9355018146266</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24821,7 +24821,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24894,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24919,28 +24919,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24973,13 +24973,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>127.4161621813053</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>347.4314726443768</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24998,28 +24998,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>105.5821905670137</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25052,10 +25052,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>143.5657919235178</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25064,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25131,13 +25131,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>252.9439654637738</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,25 +25201,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>127.4161621813053</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25235,19 +25235,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>94.78158527535656</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>107.544508198328</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25298,7 +25298,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25368,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25399,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>165.8617568640524</v>
@@ -25408,7 +25408,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25438,10 +25438,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>291.8274516623475</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25478,7 +25478,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>52.90669720804131</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25487,13 +25487,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,19 +25520,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>107.5632045095234</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25569,7 +25569,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25639,19 +25639,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>344.4597780394191</v>
       </c>
       <c r="G41" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,10 +25672,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25684,16 +25684,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>158.8955716431281</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25706,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>56.38340022020472</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25763,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>167.3001328330678</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G43" t="n">
         <v>167.9909793584588</v>
@@ -25839,7 +25839,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25876,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>302.9738112079013</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>345.7616595229184</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>51.52173503780676</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>154.8758545618492</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26006,13 +26006,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26043,7 +26043,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26079,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>91388.36989223279</v>
+      </c>
+      <c r="C2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="D2" t="n">
         <v>91388.36989223283</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
+        <v>91388.36989223279</v>
+      </c>
+      <c r="F2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="G2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="H2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="D2" t="n">
-        <v>91388.36989223277</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="I2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="F2" t="n">
-        <v>91388.36989223285</v>
-      </c>
-      <c r="G2" t="n">
-        <v>91388.36989223283</v>
-      </c>
-      <c r="H2" t="n">
-        <v>91388.36989223285</v>
-      </c>
-      <c r="I2" t="n">
-        <v>91388.3698922328</v>
-      </c>
       <c r="J2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="K2" t="n">
         <v>91388.36989223283</v>
       </c>
       <c r="L2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="M2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="N2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="M2" t="n">
-        <v>91388.36989223279</v>
-      </c>
-      <c r="N2" t="n">
-        <v>91388.36989223283</v>
-      </c>
       <c r="O2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="P2" t="n">
         <v>91388.3698922328</v>
-      </c>
-      <c r="P2" t="n">
-        <v>91388.36989223285</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37841.86290078053</v>
+        <v>-50059.87352082103</v>
       </c>
       <c r="C6" t="n">
-        <v>42927.56863076718</v>
+        <v>30709.5580107267</v>
       </c>
       <c r="D6" t="n">
-        <v>42927.56863076713</v>
+        <v>30709.55801072673</v>
       </c>
       <c r="E6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.15801072669</v>
       </c>
       <c r="F6" t="n">
-        <v>76555.16863076721</v>
+        <v>64337.1580107267</v>
       </c>
       <c r="G6" t="n">
-        <v>76555.16863076719</v>
+        <v>64337.1580107267</v>
       </c>
       <c r="H6" t="n">
-        <v>76555.16863076721</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="I6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="J6" t="n">
-        <v>13495.22603166094</v>
+        <v>1277.215411620457</v>
       </c>
       <c r="K6" t="n">
-        <v>76555.16863076719</v>
+        <v>64337.15801072673</v>
       </c>
       <c r="L6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.1580107267</v>
       </c>
       <c r="M6" t="n">
-        <v>76555.16863076715</v>
+        <v>64337.15801072672</v>
       </c>
       <c r="N6" t="n">
-        <v>76555.16863076719</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="O6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="P6" t="n">
-        <v>76555.16863076721</v>
+        <v>64337.1580107267</v>
       </c>
     </row>
   </sheetData>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34792,13 +34792,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>43.28534947792182</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34947,7 +34947,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35029,13 +35029,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>43.28534947792182</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35266,10 +35266,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P9" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35421,10 +35421,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
@@ -35503,7 +35503,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>240.0046611659691</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N15" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -36208,7 +36208,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36685,13 +36685,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O29" t="n">
         <v>150.7019698410586</v>
@@ -36922,10 +36922,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O30" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37077,7 +37077,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37153,10 +37153,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>161.1784674257276</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37165,7 +37165,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9091475161415</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>337788.7049113787</v>
+        <v>429790.553494477</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>925399.3994514376</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -658,67 +658,67 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>50.12830685834945</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>89.98138655216532</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,49 +837,49 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -940,31 +940,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>114.9581870864144</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>106.9888781040981</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>22.98080607693674</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>24.68052841078147</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>23.13918734298657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>83.12218148371484</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>138.770793918182</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,58 +1615,58 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T14" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>123.3365499318637</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>94.38648558375546</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>21.18375537072436</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>111.7765806969846</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1937,10 +1937,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1988,10 +1988,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>142.8673256144868</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2125,16 +2125,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,25 +2165,25 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>100.9284409692986</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2225,10 +2225,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2362,19 +2362,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>30.67311258235953</v>
       </c>
       <c r="Y24" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>230.2038249569697</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2645,13 +2645,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,13 +2684,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>121.0433212827291</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2699,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>74.66660298204816</v>
       </c>
     </row>
     <row r="28">
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2836,22 +2836,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U29" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>92.77299717368913</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2888,10 +2888,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>71.03779291784907</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2964,43 +2964,43 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3073,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3113,16 +3113,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>81.05835151197738</v>
       </c>
       <c r="E33" t="n">
-        <v>52.0628898883872</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3167,13 +3167,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3356,19 +3356,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>11.02309482854828</v>
       </c>
       <c r="G36" t="n">
-        <v>29.79900896488263</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3410,7 +3410,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>75.82036804258443</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3596,13 +3596,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>92.60152418529817</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>62.4162677022923</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3827,13 +3827,13 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>78.19622121383934</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>58.64124924790705</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>112.3289263072337</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4058,25 +4058,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>168.2525069650545</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4103,22 +4103,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X2" t="n">
-        <v>710.516763498309</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y2" t="n">
-        <v>467.067986854209</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>193.7341723913397</v>
+        <v>209.4007545726551</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>209.4007545726551</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>209.4007545726551</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>209.4007545726551</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>209.4007545726551</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>70.66992915527061</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>70.66992915527061</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4424,37 +4424,37 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>873.1668660640046</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>873.1668660640046</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>873.1668660640046</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U3" t="n">
-        <v>644.9432478003937</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V3" t="n">
-        <v>644.9432478003937</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W3" t="n">
-        <v>401.4944711562937</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="X3" t="n">
-        <v>401.4944711562937</v>
+        <v>209.4007545726551</v>
       </c>
       <c r="Y3" t="n">
-        <v>193.7341723913397</v>
+        <v>209.4007545726551</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
         <v>19.28114311021272</v>
@@ -4527,13 +4527,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C5" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="U5" t="n">
-        <v>812.6742080953335</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V5" t="n">
-        <v>812.6742080953335</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="W5" t="n">
-        <v>749.627473042513</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>189.028636514577</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="C6" t="n">
-        <v>189.028636514577</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="D6" t="n">
-        <v>189.028636514577</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E6" t="n">
-        <v>189.028636514577</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F6" t="n">
-        <v>42.49407854146196</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>432.4774131586771</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>432.4774131586771</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>189.028636514577</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X6" t="n">
-        <v>189.028636514577</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y6" t="n">
-        <v>189.028636514577</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="7">
@@ -4755,13 +4755,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C8" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D8" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E8" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4831,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>366.1018663125844</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V8" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W8" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X8" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>157.5801053801904</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>157.5801053801904</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>157.5801053801904</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>157.5801053801904</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>157.5801053801904</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>157.5801053801904</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>44.21096978776977</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4886,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V9" t="n">
-        <v>454.3181732824481</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W9" t="n">
-        <v>210.869396638348</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X9" t="n">
-        <v>210.869396638348</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.4964801302808</v>
+        <v>325.7954424002585</v>
       </c>
     </row>
     <row r="10">
@@ -4998,7 +4998,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C11" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D11" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E11" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="H11" t="n">
         <v>19.28114311021272</v>
@@ -5071,22 +5071,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U11" t="n">
-        <v>953.9655401424092</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V11" t="n">
-        <v>953.9655401424092</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W11" t="n">
-        <v>953.9655401424092</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X11" t="n">
-        <v>953.9655401424092</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y11" t="n">
-        <v>710.516763498309</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>307.1033079837604</v>
+        <v>277.6959718698396</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6502787026334</v>
+        <v>103.2429425887126</v>
       </c>
       <c r="D12" t="n">
-        <v>132.6502787026334</v>
+        <v>103.2429425887126</v>
       </c>
       <c r="E12" t="n">
-        <v>132.6502787026334</v>
+        <v>103.2429425887126</v>
       </c>
       <c r="F12" t="n">
-        <v>132.6502787026334</v>
+        <v>103.2429425887126</v>
       </c>
       <c r="G12" t="n">
-        <v>132.6502787026334</v>
+        <v>103.2429425887126</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>103.2429425887126</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5123,49 +5123,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N12" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O12" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>722.7151069542472</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>722.7151069542472</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>722.7151069542472</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W12" t="n">
-        <v>722.7151069542472</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X12" t="n">
-        <v>514.8636067487143</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y12" t="n">
-        <v>307.1033079837604</v>
+        <v>277.6959718698396</v>
       </c>
     </row>
     <row r="13">
@@ -5220,22 +5220,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W13" t="n">
         <v>19.28114311021272</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
         <v>19.28114311021272</v>
@@ -5302,28 +5302,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y14" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>257.2326523711826</v>
+        <v>273.858482543704</v>
       </c>
       <c r="C15" t="n">
-        <v>257.2326523711826</v>
+        <v>273.858482543704</v>
       </c>
       <c r="D15" t="n">
-        <v>132.6502787026334</v>
+        <v>273.858482543704</v>
       </c>
       <c r="E15" t="n">
-        <v>132.6502787026334</v>
+        <v>114.6210275382485</v>
       </c>
       <c r="F15" t="n">
-        <v>132.6502787026334</v>
+        <v>114.6210275382485</v>
       </c>
       <c r="G15" t="n">
-        <v>132.6502787026334</v>
+        <v>114.6210275382485</v>
       </c>
       <c r="H15" t="n">
         <v>19.28114311021272</v>
@@ -5360,10 +5360,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M15" t="n">
         <v>304.2053859195205</v>
@@ -5381,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U15" t="n">
-        <v>735.8335372470253</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V15" t="n">
-        <v>500.6814290152826</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W15" t="n">
-        <v>257.2326523711826</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X15" t="n">
-        <v>257.2326523711826</v>
+        <v>481.618781308658</v>
       </c>
       <c r="Y15" t="n">
-        <v>257.2326523711826</v>
+        <v>273.858482543704</v>
       </c>
     </row>
     <row r="16">
@@ -5460,19 +5460,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
         <v>19.28114311021272</v>
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>527.5764290961142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>527.5764290961142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>527.5764290961142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>752.9257720901863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>527.5764290961142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U17" t="n">
-        <v>527.5764290961142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>527.5764290961142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>527.5764290961142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>527.5764290961142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>527.5764290961142</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H18" t="n">
         <v>19.28114311021272</v>
@@ -5597,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>500.6814290152826</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W18" t="n">
-        <v>257.2326523711826</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X18" t="n">
-        <v>49.38115216564972</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="19">
@@ -5706,10 +5706,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V20" t="n">
-        <v>802.5825927271064</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W20" t="n">
-        <v>802.5825927271064</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>235.3523315264278</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>235.3523315264278</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W21" t="n">
-        <v>257.2326523711826</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X21" t="n">
-        <v>49.38115216564972</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="22">
@@ -5940,13 +5940,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C23" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T23" t="n">
-        <v>587.3248651012614</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="24">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C24" t="n">
         <v>19.28114311021272</v>
@@ -6077,7 +6077,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="X24" t="n">
-        <v>49.38115216564972</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="25">
@@ -6171,10 +6171,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
         <v>19.28114311021272</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T26" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U26" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>304.5465265007123</v>
+        <v>445.8341334011449</v>
       </c>
       <c r="C27" t="n">
-        <v>304.5465265007123</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="D27" t="n">
-        <v>304.5465265007123</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="E27" t="n">
-        <v>304.5465265007123</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F27" t="n">
-        <v>158.0119685275972</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6332,25 +6332,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>740.6216449698561</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>512.3980267062451</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V27" t="n">
-        <v>512.3980267062451</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W27" t="n">
-        <v>512.3980267062451</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X27" t="n">
-        <v>304.5465265007123</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y27" t="n">
-        <v>304.5465265007123</v>
+        <v>614.0494704212128</v>
       </c>
     </row>
     <row r="28">
@@ -6408,7 +6408,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
         <v>19.28114311021272</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C29" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D29" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G29" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="G29" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>547.1910343172051</v>
+        <v>657.1497008972277</v>
       </c>
       <c r="C30" t="n">
-        <v>453.4809361619635</v>
+        <v>657.1497008972277</v>
       </c>
       <c r="D30" t="n">
-        <v>304.5465265007123</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="E30" t="n">
-        <v>304.5465265007123</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6551,10 +6551,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>790.6398109613051</v>
+        <v>892.3018091289705</v>
       </c>
       <c r="V30" t="n">
-        <v>790.6398109613051</v>
+        <v>657.1497008972277</v>
       </c>
       <c r="W30" t="n">
-        <v>547.1910343172051</v>
+        <v>657.1497008972277</v>
       </c>
       <c r="X30" t="n">
-        <v>547.1910343172051</v>
+        <v>657.1497008972277</v>
       </c>
       <c r="Y30" t="n">
-        <v>547.1910343172051</v>
+        <v>657.1497008972277</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
         <v>19.28114311021272</v>
@@ -6648,25 +6648,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C32" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D32" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E32" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K32" t="n">
         <v>122.2961490211351</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U32" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V32" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W32" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X32" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y32" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>619.4388494194218</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="C33" t="n">
-        <v>619.4388494194218</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="D33" t="n">
-        <v>470.5044397581705</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="E33" t="n">
-        <v>417.9156620931329</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F33" t="n">
-        <v>271.3811041200179</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6788,7 +6788,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
         <v>725.4530095217538</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>619.4388494194218</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X33" t="n">
-        <v>619.4388494194218</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="Y33" t="n">
-        <v>619.4388494194218</v>
+        <v>521.0535470733607</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
         <v>19.28114311021272</v>
@@ -6891,19 +6891,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6970,19 +6970,19 @@
         <v>376.1934816808115</v>
       </c>
       <c r="U35" t="n">
-        <v>132.7447050367114</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V35" t="n">
-        <v>132.7447050367114</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W35" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>49.38115216564972</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="C36" t="n">
-        <v>49.38115216564972</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="D36" t="n">
-        <v>49.38115216564972</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="E36" t="n">
-        <v>49.38115216564972</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="F36" t="n">
-        <v>49.38115216564972</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7025,13 +7025,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7046,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="Y36" t="n">
-        <v>49.38115216564972</v>
+        <v>283.2696759935595</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I37" t="n">
         <v>19.28114311021272</v>
@@ -7128,19 +7128,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7174,7 +7174,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K38" t="n">
         <v>122.2961490211351</v>
@@ -7204,22 +7204,22 @@
         <v>601.5428246748836</v>
       </c>
       <c r="T38" t="n">
-        <v>601.5428246748836</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U38" t="n">
-        <v>601.5428246748836</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>601.5428246748836</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>601.5428246748836</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>601.5428246748836</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>223.7040404982626</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C39" t="n">
-        <v>223.7040404982626</v>
+        <v>307.7005108416342</v>
       </c>
       <c r="D39" t="n">
-        <v>223.7040404982626</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E39" t="n">
-        <v>223.7040404982626</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F39" t="n">
-        <v>223.7040404982626</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7259,16 +7259,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>870.5202623941734</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>870.5202623941734</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>635.3681541624308</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W39" t="n">
-        <v>391.9193775183306</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X39" t="n">
-        <v>391.9193775183306</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y39" t="n">
-        <v>391.9193775183306</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="40">
@@ -7320,13 +7320,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I40" t="n">
         <v>19.28114311021272</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>569.2254314512334</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C41" t="n">
-        <v>569.2254314512334</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D41" t="n">
-        <v>569.2254314512334</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E41" t="n">
-        <v>569.2254314512334</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>569.2254314512334</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V41" t="n">
-        <v>569.2254314512334</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W41" t="n">
-        <v>569.2254314512334</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X41" t="n">
-        <v>569.2254314512334</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y41" t="n">
-        <v>569.2254314512334</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>325.0531560887832</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C42" t="n">
-        <v>325.0531560887832</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D42" t="n">
-        <v>325.0531560887832</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E42" t="n">
-        <v>165.8157010833278</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7499,10 +7499,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
         <v>964.0571555106362</v>
@@ -7523,19 +7523,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>803.6540409646259</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V42" t="n">
-        <v>568.5019327328832</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W42" t="n">
-        <v>325.0531560887832</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X42" t="n">
-        <v>325.0531560887832</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y42" t="n">
-        <v>325.0531560887832</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="43">
@@ -7557,13 +7557,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I43" t="n">
         <v>19.28114311021272</v>
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>376.1934816808115</v>
+      </c>
+      <c r="C44" t="n">
+        <v>376.1934816808115</v>
+      </c>
+      <c r="D44" t="n">
+        <v>376.1934816808115</v>
+      </c>
+      <c r="E44" t="n">
+        <v>376.1934816808115</v>
+      </c>
+      <c r="F44" t="n">
+        <v>376.1934816808115</v>
+      </c>
+      <c r="G44" t="n">
         <v>132.7447050367114</v>
       </c>
-      <c r="C44" t="n">
+      <c r="H44" t="n">
         <v>132.7447050367114</v>
-      </c>
-      <c r="D44" t="n">
-        <v>132.7447050367114</v>
-      </c>
-      <c r="E44" t="n">
-        <v>132.7447050367114</v>
-      </c>
-      <c r="F44" t="n">
-        <v>132.7447050367114</v>
-      </c>
-      <c r="G44" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="H44" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
         <v>19.28114311021272</v>
@@ -7681,19 +7681,19 @@
         <v>376.1934816808115</v>
       </c>
       <c r="U44" t="n">
-        <v>132.7447050367114</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V44" t="n">
-        <v>132.7447050367114</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W44" t="n">
-        <v>132.7447050367114</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X44" t="n">
-        <v>132.7447050367114</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y44" t="n">
-        <v>132.7447050367114</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>817.1412885554689</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C45" t="n">
-        <v>817.1412885554689</v>
+        <v>315.5042433973647</v>
       </c>
       <c r="D45" t="n">
-        <v>668.2068788942177</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E45" t="n">
-        <v>508.9694238887622</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F45" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
         <v>20.03527576299844</v>
@@ -7736,10 +7736,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
         <v>964.0571555106362</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>817.1412885554689</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>817.1412885554689</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>817.1412885554689</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W45" t="n">
-        <v>817.1412885554689</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X45" t="n">
-        <v>817.1412885554689</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y45" t="n">
-        <v>817.1412885554689</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="46">
@@ -7984,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8072,13 +8072,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,13 +8546,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>312.5053919605859</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8771,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
@@ -8783,13 +8783,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,13 +9008,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M15" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -10199,13 +10199,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10436,10 +10436,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10673,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10907,19 +10907,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11147,13 +11147,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11384,13 +11384,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C2" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22606,7 +22606,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>39.26832599306563</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>10.17644760047781</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22691,10 +22691,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22725,7 +22725,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22804,7 +22804,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>108.137662477717</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>286.8247010151207</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22865,28 +22865,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>65.7196208842176</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>114.3627110862739</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22916,10 +22916,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22995,7 +22995,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23029,10 +23029,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23041,7 +23041,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>158.0503210826583</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23117,10 +23117,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>64.7161044406336</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>182.5435084343178</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23238,10 +23238,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,13 +23269,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>119.2616763733422</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23311,13 +23311,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23354,10 +23354,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>6.274451367700237</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>61.39393477663964</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,7 +23503,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23512,7 +23512,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23542,19 +23542,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23579,10 +23579,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>24.10851563277508</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23591,7 +23591,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>17.848958652741</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23700,7 +23700,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23740,13 +23740,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>394.1189821444107</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23779,13 +23779,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23816,7 +23816,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>35.66848486765419</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23825,10 +23825,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23867,7 +23867,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23876,10 +23876,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23946,13 +23946,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>272.4354119006482</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24013,16 +24013,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24034,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>317.3055321907215</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24053,25 +24053,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>44.14077142408529</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24104,7 +24104,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>280.8531039918463</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24223,7 +24223,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24250,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>171.0109458920165</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>175.099872621118</v>
       </c>
       <c r="Y24" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24411,13 +24411,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24457,10 +24457,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24490,10 +24490,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>97.54843351316518</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24533,13 +24533,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24572,13 +24572,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>79.12140741209247</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24587,10 +24587,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>131.0160927952562</v>
       </c>
     </row>
     <row r="28">
@@ -24648,10 +24648,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24688,7 +24688,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24697,7 +24697,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24724,22 +24724,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U29" t="n">
-        <v>21.14182795086677</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24761,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>79.9355018146266</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24776,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24809,19 +24809,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>154.9035891631257</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24888,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24922,13 +24922,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>302.2574731329354</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24937,7 +24937,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24961,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24973,13 +24973,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>347.4314726443768</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25001,16 +25001,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>66.38671405266138</v>
       </c>
       <c r="E33" t="n">
-        <v>105.5821905670137</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25055,13 +25055,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25131,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>252.9439654637738</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25210,13 +25210,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>236.9120424101793</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25244,19 +25244,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>134.0461175648356</v>
       </c>
       <c r="G36" t="n">
-        <v>107.544508198328</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25286,10 +25286,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25332,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25368,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25402,13 +25402,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>291.8274516623475</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>96.88813094573131</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25484,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>107.5632045095234</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25569,7 +25569,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -25630,7 +25630,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,13 +25639,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>344.4597780394191</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G41" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25675,7 +25675,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25715,13 +25715,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>79.44885924156161</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>167.3001328330678</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.9909793584588</v>
@@ -25806,7 +25806,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>302.9738112079013</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>98.14696326317221</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25946,25 +25946,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>4.455992023261274</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,22 +25991,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>154.8758545618492</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="15">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="C2" t="n">
+        <v>91388.36989223285</v>
+      </c>
+      <c r="D2" t="n">
         <v>91388.3698922328</v>
       </c>
-      <c r="D2" t="n">
-        <v>91388.36989223283</v>
-      </c>
       <c r="E2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="F2" t="n">
         <v>91388.3698922328</v>
@@ -26334,10 +26334,10 @@
         <v>91388.36989223282</v>
       </c>
       <c r="I2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223285</v>
       </c>
       <c r="J2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="K2" t="n">
         <v>91388.36989223283</v>
@@ -26349,13 +26349,13 @@
         <v>91388.36989223283</v>
       </c>
       <c r="N2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="O2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="P2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223283</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50059.87352082103</v>
+        <v>-39063.6639627846</v>
       </c>
       <c r="C6" t="n">
-        <v>30709.5580107267</v>
+        <v>41705.76756876316</v>
       </c>
       <c r="D6" t="n">
-        <v>30709.55801072673</v>
+        <v>41705.76756876312</v>
       </c>
       <c r="E6" t="n">
-        <v>64337.15801072669</v>
+        <v>75333.36756876312</v>
       </c>
       <c r="F6" t="n">
-        <v>64337.1580107267</v>
+        <v>75333.36756876312</v>
       </c>
       <c r="G6" t="n">
-        <v>64337.1580107267</v>
+        <v>75333.36756876312</v>
       </c>
       <c r="H6" t="n">
-        <v>64337.15801072671</v>
+        <v>75333.36756876313</v>
       </c>
       <c r="I6" t="n">
-        <v>64337.15801072671</v>
+        <v>75333.36756876316</v>
       </c>
       <c r="J6" t="n">
-        <v>1277.215411620457</v>
+        <v>12273.42496965689</v>
       </c>
       <c r="K6" t="n">
-        <v>64337.15801072673</v>
+        <v>75333.36756876315</v>
       </c>
       <c r="L6" t="n">
-        <v>64337.1580107267</v>
+        <v>75333.36756876312</v>
       </c>
       <c r="M6" t="n">
-        <v>64337.15801072672</v>
+        <v>75333.36756876315</v>
       </c>
       <c r="N6" t="n">
-        <v>64337.15801072671</v>
+        <v>75333.36756876312</v>
       </c>
       <c r="O6" t="n">
-        <v>64337.15801072671</v>
+        <v>75333.36756876312</v>
       </c>
       <c r="P6" t="n">
-        <v>64337.1580107267</v>
+        <v>75333.36756876315</v>
       </c>
     </row>
   </sheetData>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34792,13 +34792,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>113.3808631277494</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35266,13 +35266,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>169.9091475161414</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35491,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
@@ -35503,13 +35503,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35728,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M15" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,10 +36445,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N24" t="n">
         <v>55.51629994036225</v>
-      </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36843,7 +36843,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
         <v>150.7019698410586</v>
@@ -36919,13 +36919,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37156,10 +37156,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37393,16 +37393,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37867,13 +37867,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
